--- a/biology/Microbiologie/Balantidiopsis/Balantidiopsis.xlsx
+++ b/biology/Microbiologie/Balantidiopsis/Balantidiopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Balantidiopsis est un genre de Ciliés de la famille des Balantidiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type Balantidiopsis muscicola est un être unicellulaire au corps ovoïde, allongé, d'une longueur de 80 à 100 μm, très métabolique, presque toujours un peu étiré en avant, et infléchi sur une face ventrale, plane, par opposition à une face dorsale renflée. La face ventrale porte dans sa région antérieure une sorte de disque adhésif, ou zone dépourvue de cils, qui se confond plus haut avec la région buccale. La région buccale représente également une plage allongée, entourée à son bord d’un cercle de cils très forts et très épais. La bouche est en fente, difficilement visible, bordée d’un ruban finement strié. Les lignes ciliaires sont bien dessinées, longitudinales à la face dorsale, arquées à la face ventrale et y contournant le disque caractéristique. À part cette aire discoïde spéciale, le corps est en entier recouvert de cils serrés et très fins. Le cytoplasme est bourré de poussières qui donnent à ce protiste une coloration jaunâtre. Le noyau est allongé en ruban ou en fer à cheval ; il y a un micronoyau adjacent et entre dix et vingt vésicules contractiles réparties sans ordre dans l’ectoplasme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type Balantidiopsis muscicola est un être unicellulaire au corps ovoïde, allongé, d'une longueur de 80 à 100 μm, très métabolique, presque toujours un peu étiré en avant, et infléchi sur une face ventrale, plane, par opposition à une face dorsale renflée. La face ventrale porte dans sa région antérieure une sorte de disque adhésif, ou zone dépourvue de cils, qui se confond plus haut avec la région buccale. La région buccale représente également une plage allongée, entourée à son bord d’un cercle de cils très forts et très épais. La bouche est en fente, difficilement visible, bordée d’un ruban finement strié. Les lignes ciliaires sont bien dessinées, longitudinales à la face dorsale, arquées à la face ventrale et y contournant le disque caractéristique. À part cette aire discoïde spéciale, le corps est en entier recouvert de cils serrés et très fins. Le cytoplasme est bourré de poussières qui donnent à ce protiste une coloration jaunâtre. Le noyau est allongé en ruban ou en fer à cheval ; il y a un micronoyau adjacent et entre dix et vingt vésicules contractiles réparties sans ordre dans l’ectoplasme.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce type a été trouvée sur des mousses sur de vieux murs[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce type a été trouvée sur des mousses sur de vieux murs.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1922 par le microbiologiste suisse Eugène Penard, sous le nom Balantidiopsis. Il s'agit d'un nom illégitime selon The Taxonomicon  (2 octobre 2023)[2]. Balantidiopsis muscicola est l'espèce type[1], déplacée par son auteur en 1930 dans le genre Balantidioides (famille des Reichenowellidae)[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1922 par le microbiologiste suisse Eugène Penard, sous le nom Balantidiopsis. Il s'agit d'un nom illégitime selon The Taxonomicon  (2 octobre 2023). Balantidiopsis muscicola est l'espèce type, déplacée par son auteur en 1930 dans le genre Balantidioides (famille des Reichenowellidae).
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 octobre 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 octobre 2023) :
 Balantidiopsis bacteriophorus
 Balantidiopsis bivacuolata
 Balantidiopsis rotundum
@@ -639,7 +659,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Eugène Penard, Études sur les infusoires d'eau douce, Genève, Inconnu, 1922, 352 p. (OCLC 8642818, DOI 10.5962/BHL.TITLE.11630, lire en ligne ), p. 15</t>
         </is>
